--- a/resources/STTM_v22.xlsx
+++ b/resources/STTM_v22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santoshkotagiri/Documents/git-workspace/confluent-data-ingestion/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249ADD8-5AA6-5E4F-82A9-B2BA6FBDFBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DFCE37-D26C-494D-92FA-57749C6CFCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STTM_Mapping" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="265">
   <si>
     <t>PipelineStage</t>
   </si>
@@ -852,6 +852,18 @@
   </si>
   <si>
     <t>SourceField or TargetColumn as fallback</t>
+  </si>
+  <si>
+    <t>QUARANTINE_CBA_CI_ADR_REF</t>
+  </si>
+  <si>
+    <t>P.CI_ID IS NULL</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>a.CI_ID</t>
   </si>
 </sst>
 </file>
@@ -910,11 +922,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1219,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4233,6 +4246,111 @@
         <v>200</v>
       </c>
     </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" t="s">
+        <v>264</v>
+      </c>
+      <c r="N84" t="s">
+        <v>262</v>
+      </c>
+      <c r="O84" t="s">
+        <v>26</v>
+      </c>
+      <c r="P84" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>156</v>
+      </c>
+      <c r="R84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" t="s">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>86</v>
+      </c>
+      <c r="K85" t="s">
+        <v>30</v>
+      </c>
+      <c r="M85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" t="s">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>86</v>
+      </c>
+      <c r="K86" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4240,10 +4358,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4257,9 +4375,10 @@
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -4287,8 +4406,11 @@
       <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -4316,8 +4438,11 @@
       <c r="I2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -4343,6 +4468,9 @@
         <v>205</v>
       </c>
       <c r="I3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" t="s">
         <v>204</v>
       </c>
     </row>
